--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujeet.SUSHIL\git\repository2\swaglabs\src\test\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujeet.SUSHIL\IdeaProjects\Selenium_Learning\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CE758-47C5-4819-845F-BAC3EA7E6E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4495007-A945-4C8F-B932-D49A920D2544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3CD1C712-9045-4F85-B45A-E97C116C2ADE}"/>
+    <workbookView xWindow="3570" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{3CD1C712-9045-4F85-B45A-E97C116C2ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -48,6 +47,12 @@
   </si>
   <si>
     <t>sdafdf</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>sujeet</t>
   </si>
 </sst>
 </file>
@@ -415,65 +420,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC66F94-5E80-4651-9592-118F52F5BF27}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C33B41-3AFB-4DB7-8FBD-4903ED22257E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>